--- a/Output workbooks/urban_population_statistics.xlsx
+++ b/Output workbooks/urban_population_statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centreforcities.sharepoint.com/sites/CentreForCities3/Shared Documents/Research/Social and Demographics/Escape to the Country/Data/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.Lange\Documents\GitHub\urban-population-internal-migration\Output workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{E2002D31-14BD-4387-8C24-DF2EB93E1976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C32C4237-8071-4C5F-872A-1C613D021114}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64CB1B5-0801-4A7E-9338-1AAEE3781BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <sheet name="pop_all" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="190">
   <si>
     <t>PUA</t>
   </si>
@@ -580,9 +581,6 @@
     <t>2015-2019 average annual growth rate</t>
   </si>
   <si>
-    <t>2020-21 annual growth rate</t>
-  </si>
-  <si>
     <t>Calculating urban and non-urban population growth, 2010-2022</t>
   </si>
   <si>
@@ -608,6 +606,15 @@
   </si>
   <si>
     <t>Growth through the pandemic years</t>
+  </si>
+  <si>
+    <t>2022-2021 diff</t>
+  </si>
+  <si>
+    <t>pre-pandemic average</t>
+  </si>
+  <si>
+    <t>2019-21 average annual growth rate</t>
   </si>
 </sst>
 </file>
@@ -677,7 +684,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -689,9 +696,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1229,432 +1233,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Growth</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> rate, pre and during pandemic, by city size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>population_by_PUA!$B$98</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2015-2019 average annual growth rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>population_by_PUA!$A$99:$A$102</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Small cities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Medium cities </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Large cities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>London</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>population_by_PUA!$B$99:$B$102</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.4629845268840014E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.665683679077247E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8556252504992582E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2859063918330815E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F000-4791-8E4B-5B46760AEFE5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>population_by_PUA!$C$98</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2020-21 annual growth rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>population_by_PUA!$A$99:$A$102</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Small cities</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Medium cities </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Large cities</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>London</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>population_by_PUA!$C$99:$C$102</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.2015225834150359E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6348225554688219E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4246782537055015E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.7174128318817989E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F000-4791-8E4B-5B46760AEFE5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1510503584"/>
-        <c:axId val="1452073008"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1510503584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1452073008"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1452073008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1510503584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1960,7 +1538,1191 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>population_by_PUA!$E$99:$E$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Small cities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium cities </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large cities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>London</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>population_by_PUA!$F$99:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.4629845268840014E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.665683679077247E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8556252504992582E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2859063918330815E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B1C-4C08-A2CE-8182F5663E5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>population_by_PUA!$E$99:$E$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Small cities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium cities </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large cities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>London</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>population_by_PUA!$G$99:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>1.2362507117406035E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.386252252231107E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5373097623770948E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7577502214784968E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B1C-4C08-A2CE-8182F5663E5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>population_by_PUA!$E$99:$E$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Small cities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium cities </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large cities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>London</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>population_by_PUA!$H$99:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>3.1628843370766044E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8807856154112095E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.310032818792544E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.6870718941666367E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B1C-4C08-A2CE-8182F5663E5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>population_by_PUA!$E$99:$E$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Small cities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium cities </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large cities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>London</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>population_by_PUA!$I$99:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>8.0290358304409472E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0437062156815885E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2818210435502679E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5892382816742411E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B1C-4C08-A2CE-8182F5663E5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="17733311"/>
+        <c:axId val="17733791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="17733311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17733791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="17733791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17733311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>population_by_PUA!$B$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015-2019 average annual growth rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>population_by_PUA!$A$99:$A$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Small cities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium cities </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large cities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>London</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>population_by_PUA!$B$99:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.4629845268840014E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.665683679077247E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8556252504992582E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2859063918330815E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFAC-4570-B79B-D8FCB0BC5ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>population_by_PUA!$C$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019-21 average annual growth rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>population_by_PUA!$A$99:$A$102</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Small cities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium cities </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large cities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>London</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>population_by_PUA!$C$99:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2015225834150359E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6348225554688219E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4246782537055015E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7174128318817989E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EFAC-4570-B79B-D8FCB0BC5ECF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="10999968"/>
+        <c:axId val="11007168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10999968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11007168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11007168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10999968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>population_by_PUA!$E$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>London</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>population_by_PUA!$F$98:$I$98</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>pre-pandemic average</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>population_by_PUA!$F$102:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>5.2859063918330815E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7577502214784968E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.6870718941666367E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5892382816742411E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-197F-40AB-A83F-FE2CA07D0D6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="10992768"/>
+        <c:axId val="10970208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10992768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10970208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="10970208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10992768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4884,7 +5646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5411,7 +6173,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6032,7 +6794,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6807,6 +7569,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7363,509 +8205,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8381,8 +8720,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8490,11 +8829,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8505,11 +8839,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8541,9 +8870,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8898,7 +9727,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9006,11 +9835,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9021,11 +9845,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9057,9 +9876,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9930,6 +10746,1038 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10472,42 +12320,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>310235</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>122619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152665</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>38075</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA547D6A-AC52-A3FE-7C0D-80205C896FEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>616527</xdr:colOff>
       <xdr:row>150</xdr:row>
@@ -10536,7 +12348,115 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>775445</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475129</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D34C113-78E2-09E9-168B-E8286F5A60C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>712694</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>479612</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9229B23-008A-638A-1F6E-880F89B75C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>726140</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA407A7-B2B7-CBF0-5458-118C0A3D788F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10983,10 +12903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG156"/>
+  <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S111" sqref="S111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10995,7 +12915,7 @@
     <col min="19" max="19" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11069,7 +12989,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11144,7 +13064,7 @@
         <v>2598216</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11219,7 +13139,7 @@
         <v>773789</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11294,7 +13214,7 @@
         <v>1020550</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -11369,7 +13289,7 @@
         <v>822483</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -11444,7 +13364,7 @@
         <v>653873</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -11518,16 +13438,8 @@
       <c r="X7">
         <v>2577634</v>
       </c>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -11601,16 +13513,8 @@
       <c r="X8">
         <v>864441</v>
       </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -11684,16 +13588,8 @@
       <c r="X9">
         <v>671436</v>
       </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -11767,16 +13663,8 @@
       <c r="X10">
         <v>834596</v>
       </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -11850,16 +13738,8 @@
       <c r="X11">
         <v>10148784</v>
       </c>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -11933,16 +13813,9 @@
       <c r="X12">
         <v>494278</v>
       </c>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
+      <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -12016,16 +13889,9 @@
       <c r="X13">
         <v>322453</v>
       </c>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
+      <c r="AE13" s="9"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -12099,16 +13965,8 @@
       <c r="X14">
         <v>401898</v>
       </c>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -12182,16 +14040,8 @@
       <c r="X15">
         <v>552644</v>
       </c>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12265,14 +14115,6 @@
       <c r="X16">
         <v>342653</v>
       </c>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -15876,7 +17718,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -15952,91 +17794,91 @@
         <v>65</v>
       </c>
       <c r="B68">
-        <f>SUM(C42:C64)</f>
+        <f t="shared" ref="B68:W68" si="2">SUM(C42:C64)</f>
         <v>3611927</v>
       </c>
       <c r="C68">
-        <f>SUM(D42:D64)</f>
+        <f t="shared" si="2"/>
         <v>3617978</v>
       </c>
       <c r="D68">
-        <f>SUM(E42:E64)</f>
+        <f t="shared" si="2"/>
         <v>3635095</v>
       </c>
       <c r="E68">
-        <f>SUM(F42:F64)</f>
+        <f t="shared" si="2"/>
         <v>3650161</v>
       </c>
       <c r="F68">
-        <f>SUM(G42:G64)</f>
+        <f t="shared" si="2"/>
         <v>3689391</v>
       </c>
       <c r="G68">
-        <f>SUM(H42:H64)</f>
+        <f t="shared" si="2"/>
         <v>3713617</v>
       </c>
       <c r="H68">
-        <f>SUM(I42:I64)</f>
+        <f t="shared" si="2"/>
         <v>3742961</v>
       </c>
       <c r="I68">
-        <f>SUM(J42:J64)</f>
+        <f t="shared" si="2"/>
         <v>3774936</v>
       </c>
       <c r="J68">
-        <f>SUM(K42:K64)</f>
+        <f t="shared" si="2"/>
         <v>3806909</v>
       </c>
       <c r="K68">
-        <f>SUM(L42:L64)</f>
+        <f t="shared" si="2"/>
         <v>3846613</v>
       </c>
       <c r="L68">
-        <f>SUM(M42:M64)</f>
+        <f t="shared" si="2"/>
         <v>3887321</v>
       </c>
       <c r="M68">
-        <f>SUM(N42:N64)</f>
+        <f t="shared" si="2"/>
         <v>3925033</v>
       </c>
       <c r="N68">
-        <f>SUM(O42:O64)</f>
+        <f t="shared" si="2"/>
         <v>3965744</v>
       </c>
       <c r="O68">
-        <f>SUM(P42:P64)</f>
+        <f t="shared" si="2"/>
         <v>4004919</v>
       </c>
       <c r="P68">
-        <f>SUM(Q42:Q64)</f>
+        <f t="shared" si="2"/>
         <v>4044822</v>
       </c>
       <c r="Q68">
-        <f>SUM(R42:R64)</f>
+        <f t="shared" si="2"/>
         <v>4084610</v>
       </c>
       <c r="R68">
-        <f>SUM(S42:S64)</f>
+        <f t="shared" si="2"/>
         <v>4111296</v>
       </c>
       <c r="S68">
-        <f>SUM(T42:T64)</f>
+        <f t="shared" si="2"/>
         <v>4132667</v>
       </c>
       <c r="T68">
-        <f>SUM(U42:U64)</f>
+        <f t="shared" si="2"/>
         <v>4155306</v>
       </c>
       <c r="U68">
-        <f>SUM(V42:V64)</f>
+        <f t="shared" si="2"/>
         <v>4160443</v>
       </c>
       <c r="V68">
-        <f>SUM(W42:W64)</f>
+        <f t="shared" si="2"/>
         <v>4173602</v>
       </c>
       <c r="W68">
-        <f>SUM(X42:X64)</f>
+        <f t="shared" si="2"/>
         <v>4207112</v>
       </c>
     </row>
@@ -16045,91 +17887,91 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <f>SUM(C12:C41)</f>
+        <f t="shared" ref="B69:W69" si="3">SUM(C12:C41)</f>
         <v>9928898</v>
       </c>
       <c r="C69">
-        <f>SUM(D12:D41)</f>
+        <f t="shared" si="3"/>
         <v>9957792</v>
       </c>
       <c r="D69">
-        <f>SUM(E12:E41)</f>
+        <f t="shared" si="3"/>
         <v>9990407</v>
       </c>
       <c r="E69">
-        <f>SUM(F12:F41)</f>
+        <f t="shared" si="3"/>
         <v>10030893</v>
       </c>
       <c r="F69">
-        <f>SUM(G12:G41)</f>
+        <f t="shared" si="3"/>
         <v>10100858</v>
       </c>
       <c r="G69">
-        <f>SUM(H12:H41)</f>
+        <f t="shared" si="3"/>
         <v>10163880</v>
       </c>
       <c r="H69">
-        <f>SUM(I12:I41)</f>
+        <f t="shared" si="3"/>
         <v>10233248</v>
       </c>
       <c r="I69">
-        <f>SUM(J12:J41)</f>
+        <f t="shared" si="3"/>
         <v>10311118</v>
       </c>
       <c r="J69">
-        <f>SUM(K12:K41)</f>
+        <f t="shared" si="3"/>
         <v>10378543</v>
       </c>
       <c r="K69">
-        <f>SUM(L12:L41)</f>
+        <f t="shared" si="3"/>
         <v>10466016</v>
       </c>
       <c r="L69">
-        <f>SUM(M12:M41)</f>
+        <f t="shared" si="3"/>
         <v>10549269</v>
       </c>
       <c r="M69">
-        <f>SUM(N12:N41)</f>
+        <f t="shared" si="3"/>
         <v>10611992</v>
       </c>
       <c r="N69">
-        <f>SUM(O12:O41)</f>
+        <f t="shared" si="3"/>
         <v>10677019</v>
       </c>
       <c r="O69">
-        <f>SUM(P12:P41)</f>
+        <f t="shared" si="3"/>
         <v>10750223</v>
       </c>
       <c r="P69">
-        <f>SUM(Q12:Q41)</f>
+        <f t="shared" si="3"/>
         <v>10824823</v>
       </c>
       <c r="Q69">
-        <f>SUM(R12:R41)</f>
+        <f t="shared" si="3"/>
         <v>10916409</v>
       </c>
       <c r="R69">
-        <f>SUM(S12:S41)</f>
+        <f t="shared" si="3"/>
         <v>10979622</v>
       </c>
       <c r="S69">
-        <f>SUM(T12:T41)</f>
+        <f t="shared" si="3"/>
         <v>11035080</v>
       </c>
       <c r="T69">
-        <f>SUM(U12:U41)</f>
+        <f t="shared" si="3"/>
         <v>11077349</v>
       </c>
       <c r="U69">
-        <f>SUM(V12:V41)</f>
+        <f t="shared" si="3"/>
         <v>11092705</v>
       </c>
       <c r="V69">
-        <f>SUM(W12:W41)</f>
+        <f t="shared" si="3"/>
         <v>11113568</v>
       </c>
       <c r="W69">
-        <f>SUM(X12:X41)</f>
+        <f t="shared" si="3"/>
         <v>11229561</v>
       </c>
     </row>
@@ -16138,91 +17980,91 @@
         <v>67</v>
       </c>
       <c r="B70">
-        <f>SUM(C2:C10)</f>
+        <f t="shared" ref="B70:W70" si="4">SUM(C2:C10)</f>
         <v>9535837</v>
       </c>
       <c r="C70">
-        <f>SUM(D2:D10)</f>
+        <f t="shared" si="4"/>
         <v>9559282</v>
       </c>
       <c r="D70">
-        <f>SUM(E2:E10)</f>
+        <f t="shared" si="4"/>
         <v>9587754</v>
       </c>
       <c r="E70">
-        <f>SUM(F2:F10)</f>
+        <f t="shared" si="4"/>
         <v>9628937</v>
       </c>
       <c r="F70">
-        <f>SUM(G2:G10)</f>
+        <f t="shared" si="4"/>
         <v>9702517</v>
       </c>
       <c r="G70">
-        <f>SUM(H2:H10)</f>
+        <f t="shared" si="4"/>
         <v>9742722</v>
       </c>
       <c r="H70">
-        <f>SUM(I2:I10)</f>
+        <f t="shared" si="4"/>
         <v>9791188</v>
       </c>
       <c r="I70">
-        <f>SUM(J2:J10)</f>
+        <f t="shared" si="4"/>
         <v>9855547</v>
       </c>
       <c r="J70">
-        <f>SUM(K2:K10)</f>
+        <f t="shared" si="4"/>
         <v>9923094</v>
       </c>
       <c r="K70">
-        <f>SUM(L2:L10)</f>
+        <f t="shared" si="4"/>
         <v>10000586</v>
       </c>
       <c r="L70">
-        <f>SUM(M2:M10)</f>
+        <f t="shared" si="4"/>
         <v>10085306</v>
       </c>
       <c r="M70">
-        <f>SUM(N2:N10)</f>
+        <f t="shared" si="4"/>
         <v>10145106</v>
       </c>
       <c r="N70">
-        <f>SUM(O2:O10)</f>
+        <f t="shared" si="4"/>
         <v>10203457</v>
       </c>
       <c r="O70">
-        <f>SUM(P2:P10)</f>
+        <f t="shared" si="4"/>
         <v>10268541</v>
       </c>
       <c r="P70">
-        <f>SUM(Q2:Q10)</f>
+        <f t="shared" si="4"/>
         <v>10346837</v>
       </c>
       <c r="Q70">
-        <f>SUM(R2:R10)</f>
+        <f t="shared" si="4"/>
         <v>10451349</v>
       </c>
       <c r="R70">
-        <f>SUM(S2:S10)</f>
+        <f t="shared" si="4"/>
         <v>10521077</v>
       </c>
       <c r="S70">
-        <f>SUM(T2:T10)</f>
+        <f t="shared" si="4"/>
         <v>10587237</v>
       </c>
       <c r="T70">
-        <f>SUM(U2:U10)</f>
+        <f t="shared" si="4"/>
         <v>10649773</v>
       </c>
       <c r="U70">
-        <f>SUM(V2:V10)</f>
+        <f t="shared" si="4"/>
         <v>10666145</v>
       </c>
       <c r="V70">
-        <f>SUM(W2:W10)</f>
+        <f t="shared" si="4"/>
         <v>10680118</v>
       </c>
       <c r="W70">
-        <f>SUM(X2:X10)</f>
+        <f t="shared" si="4"/>
         <v>10817018</v>
       </c>
     </row>
@@ -16231,91 +18073,91 @@
         <v>11</v>
       </c>
       <c r="B71">
-        <f>C11</f>
+        <f t="shared" ref="B71:W71" si="5">C11</f>
         <v>8418230</v>
       </c>
       <c r="C71">
-        <f>D11</f>
+        <f t="shared" si="5"/>
         <v>8474200</v>
       </c>
       <c r="D71">
-        <f>E11</f>
+        <f t="shared" si="5"/>
         <v>8495776</v>
       </c>
       <c r="E71">
-        <f>F11</f>
+        <f t="shared" si="5"/>
         <v>8535998</v>
       </c>
       <c r="F71">
-        <f>G11</f>
+        <f t="shared" si="5"/>
         <v>8632282</v>
       </c>
       <c r="G71">
-        <f>H11</f>
+        <f t="shared" si="5"/>
         <v>8720933</v>
       </c>
       <c r="H71">
-        <f>I11</f>
+        <f t="shared" si="5"/>
         <v>8828599</v>
       </c>
       <c r="I71">
-        <f>J11</f>
+        <f t="shared" si="5"/>
         <v>8958947</v>
       </c>
       <c r="J71">
-        <f>K11</f>
+        <f t="shared" si="5"/>
         <v>9099536</v>
       </c>
       <c r="K71">
-        <f>L11</f>
+        <f t="shared" si="5"/>
         <v>9230278</v>
       </c>
       <c r="L71">
-        <f>M11</f>
+        <f t="shared" si="5"/>
         <v>9383777</v>
       </c>
       <c r="M71">
-        <f>N11</f>
+        <f t="shared" si="5"/>
         <v>9515978</v>
       </c>
       <c r="N71">
-        <f>O11</f>
+        <f t="shared" si="5"/>
         <v>9649341</v>
       </c>
       <c r="O71">
-        <f>P11</f>
+        <f t="shared" si="5"/>
         <v>9773527</v>
       </c>
       <c r="P71">
-        <f>Q11</f>
+        <f t="shared" si="5"/>
         <v>9896316</v>
       </c>
       <c r="Q71">
-        <f>R11</f>
+        <f t="shared" si="5"/>
         <v>9990687</v>
       </c>
       <c r="R71">
-        <f>S11</f>
+        <f t="shared" si="5"/>
         <v>10028404</v>
       </c>
       <c r="S71">
-        <f>T11</f>
+        <f t="shared" si="5"/>
         <v>10092077</v>
       </c>
       <c r="T71">
-        <f>U11</f>
+        <f t="shared" si="5"/>
         <v>10157871</v>
       </c>
       <c r="U71">
-        <f>V11</f>
+        <f t="shared" si="5"/>
         <v>10140016</v>
       </c>
       <c r="V71">
-        <f>W11</f>
+        <f t="shared" si="5"/>
         <v>10082349</v>
       </c>
       <c r="W71">
-        <f>X11</f>
+        <f t="shared" si="5"/>
         <v>10148784</v>
       </c>
     </row>
@@ -16392,7 +18234,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
@@ -16468,91 +18310,91 @@
         <v>69</v>
       </c>
       <c r="B76">
-        <f>B68/SUM(B$68:B$72)</f>
+        <f t="shared" ref="B76:W76" si="6">B68/SUM(B$68:B$72)</f>
         <v>6.4131245008288401E-2</v>
       </c>
       <c r="C76">
-        <f>C68/SUM(C$68:C$72)</f>
+        <f t="shared" si="6"/>
         <v>6.3971182592829676E-2</v>
       </c>
       <c r="D76">
-        <f>D68/SUM(D$68:D$72)</f>
+        <f t="shared" si="6"/>
         <v>6.3987262308495177E-2</v>
       </c>
       <c r="E76">
-        <f>E68/SUM(E$68:E$72)</f>
+        <f t="shared" si="6"/>
         <v>6.392260711196425E-2</v>
       </c>
       <c r="F76">
-        <f>F68/SUM(F$68:F$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4115719998491555E-2</v>
       </c>
       <c r="G76">
-        <f>G68/SUM(G$68:G$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4100091378805013E-2</v>
       </c>
       <c r="H76">
-        <f>H68/SUM(H$68:H$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4092041582760814E-2</v>
       </c>
       <c r="I76">
-        <f>I68/SUM(I$68:I$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4108343204628826E-2</v>
       </c>
       <c r="J76">
-        <f>J68/SUM(J$68:J$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4189304939501104E-2</v>
       </c>
       <c r="K76">
-        <f>K68/SUM(K$68:K$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4330851114553403E-2</v>
       </c>
       <c r="L76">
-        <f>L68/SUM(L$68:L$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4458443390311745E-2</v>
       </c>
       <c r="M76">
-        <f>M68/SUM(M$68:M$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4638353593128584E-2</v>
       </c>
       <c r="N76">
-        <f>N68/SUM(N$68:N$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4855173839848637E-2</v>
       </c>
       <c r="O76">
-        <f>O68/SUM(O$68:O$72)</f>
+        <f t="shared" si="6"/>
         <v>6.4992891938230615E-2</v>
       </c>
       <c r="P76">
-        <f>P68/SUM(P$68:P$72)</f>
+        <f t="shared" si="6"/>
         <v>6.5152573424060639E-2</v>
       </c>
       <c r="Q76">
-        <f>Q68/SUM(Q$68:Q$72)</f>
+        <f t="shared" si="6"/>
         <v>6.5257557830307025E-2</v>
       </c>
       <c r="R76">
-        <f>R68/SUM(R$68:R$72)</f>
+        <f t="shared" si="6"/>
         <v>6.5317042477407786E-2</v>
       </c>
       <c r="S76">
-        <f>S68/SUM(S$68:S$72)</f>
+        <f t="shared" si="6"/>
         <v>6.5324262145052062E-2</v>
       </c>
       <c r="T76">
-        <f>T68/SUM(T$68:T$72)</f>
+        <f t="shared" si="6"/>
         <v>6.5339300476600554E-2</v>
       </c>
       <c r="U76">
-        <f>U68/SUM(U$68:U$72)</f>
+        <f t="shared" si="6"/>
         <v>6.5303022102970398E-2</v>
       </c>
       <c r="V76">
-        <f>V68/SUM(V$68:V$72)</f>
+        <f t="shared" si="6"/>
         <v>6.5271432598723547E-2</v>
       </c>
       <c r="W76">
-        <f>W68/SUM(W$68:W$72)</f>
+        <f t="shared" si="6"/>
         <v>6.5217614394804557E-2</v>
       </c>
     </row>
@@ -16561,91 +18403,91 @@
         <v>70</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:G77" si="2">B69/SUM(B$68:B$72)</f>
+        <f t="shared" ref="B77:G77" si="7">B69/SUM(B$68:B$72)</f>
         <v>0.17629165547927872</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.17606843663875751</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.17585752044379208</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.17566371242834286</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.17553677104772128</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.17543694914236141</v>
       </c>
       <c r="H77">
-        <f>H69/SUM(H$68:H$72)</f>
+        <f t="shared" ref="H77:W77" si="8">H69/SUM(H$68:H$72)</f>
         <v>0.17522751541966478</v>
       </c>
       <c r="I77">
-        <f>I69/SUM(I$68:I$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17510990691429629</v>
       </c>
       <c r="J77">
-        <f>J69/SUM(J$68:J$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17499537326863462</v>
       </c>
       <c r="K77">
-        <f>K69/SUM(K$68:K$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17503391088693707</v>
       </c>
       <c r="L77">
-        <f>L69/SUM(L$68:L$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17492495696796603</v>
       </c>
       <c r="M77">
-        <f>M69/SUM(M$68:M$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17476074499843741</v>
       </c>
       <c r="N77">
-        <f>N69/SUM(N$68:N$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17461034381855381</v>
       </c>
       <c r="O77">
-        <f>O69/SUM(O$68:O$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17445748135003011</v>
       </c>
       <c r="P77">
-        <f>P69/SUM(P$68:P$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17436245038964887</v>
       </c>
       <c r="Q77">
-        <f>Q69/SUM(Q$68:Q$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17440543690016527</v>
       </c>
       <c r="R77">
-        <f>R69/SUM(R$68:R$72)</f>
+        <f t="shared" si="8"/>
         <v>0.1744356126534993</v>
       </c>
       <c r="S77">
-        <f>S69/SUM(S$68:S$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17442935971168766</v>
       </c>
       <c r="T77">
-        <f>T69/SUM(T$68:T$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17418361843752797</v>
       </c>
       <c r="U77">
-        <f>U69/SUM(U$68:U$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17411298743829207</v>
       </c>
       <c r="V77">
-        <f>V69/SUM(V$68:V$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17380634393105304</v>
       </c>
       <c r="W77">
-        <f>W69/SUM(W$68:W$72)</f>
+        <f t="shared" si="8"/>
         <v>0.17407788980206276</v>
       </c>
     </row>
@@ -16654,91 +18496,91 @@
         <v>71</v>
       </c>
       <c r="B78">
-        <f>B70/SUM(B$68:B$72)</f>
+        <f t="shared" ref="B78:G80" si="9">B70/SUM(B$68:B$72)</f>
         <v>0.16931269624388917</v>
       </c>
       <c r="C78">
-        <f>C70/SUM(C$68:C$72)</f>
+        <f t="shared" si="9"/>
         <v>0.16902219258335735</v>
       </c>
       <c r="D78">
-        <f>D70/SUM(D$68:D$72)</f>
+        <f t="shared" si="9"/>
         <v>0.1687697653423979</v>
       </c>
       <c r="E78">
-        <f>E70/SUM(E$68:E$72)</f>
+        <f t="shared" si="9"/>
         <v>0.16862455019295194</v>
       </c>
       <c r="F78">
-        <f>F70/SUM(F$68:F$72)</f>
+        <f t="shared" si="9"/>
         <v>0.16861424100958783</v>
       </c>
       <c r="G78">
-        <f>G70/SUM(G$68:G$72)</f>
+        <f t="shared" si="9"/>
         <v>0.16816741480833752</v>
       </c>
       <c r="H78">
-        <f>H70/SUM(H$68:H$72)</f>
+        <f t="shared" ref="H78:W78" si="10">H70/SUM(H$68:H$72)</f>
         <v>0.1676579660970629</v>
       </c>
       <c r="I78">
-        <f>I70/SUM(I$68:I$72)</f>
+        <f t="shared" si="10"/>
         <v>0.1673731129601535</v>
       </c>
       <c r="J78">
-        <f>J70/SUM(J$68:J$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16731592657174987</v>
       </c>
       <c r="K78">
-        <f>K70/SUM(K$68:K$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16725004803558016</v>
       </c>
       <c r="L78">
-        <f>L70/SUM(L$68:L$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16723165539325707</v>
       </c>
       <c r="M78">
-        <f>M70/SUM(M$68:M$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16707195808742764</v>
       </c>
       <c r="N78">
-        <f>N70/SUM(N$68:N$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16686578294070933</v>
       </c>
       <c r="O78">
-        <f>O70/SUM(O$68:O$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16664061759458568</v>
       </c>
       <c r="P78">
-        <f>P70/SUM(P$68:P$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16666321962976052</v>
       </c>
       <c r="Q78">
-        <f>Q70/SUM(Q$68:Q$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16697543015666649</v>
       </c>
       <c r="R78">
-        <f>R70/SUM(R$68:R$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16715060976321774</v>
       </c>
       <c r="S78">
-        <f>S70/SUM(S$68:S$72)</f>
+        <f t="shared" si="10"/>
         <v>0.1673503926592185</v>
       </c>
       <c r="T78">
-        <f>T70/SUM(T$68:T$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16746028284188641</v>
       </c>
       <c r="U78">
-        <f>U70/SUM(U$68:U$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16741762900933557</v>
       </c>
       <c r="V78">
-        <f>V70/SUM(V$68:V$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16702757047351763</v>
       </c>
       <c r="W78">
-        <f>W70/SUM(W$68:W$72)</f>
+        <f t="shared" si="10"/>
         <v>0.16768274978789727</v>
       </c>
     </row>
@@ -16747,91 +18589,91 @@
         <v>72</v>
       </c>
       <c r="B79">
-        <f>B71/SUM(B$68:B$72)</f>
+        <f t="shared" si="9"/>
         <v>0.14946912566785645</v>
       </c>
       <c r="C79">
-        <f>C71/SUM(C$68:C$72)</f>
+        <f t="shared" si="9"/>
         <v>0.14983634381639616</v>
       </c>
       <c r="D79">
-        <f>D71/SUM(D$68:D$72)</f>
+        <f t="shared" si="9"/>
         <v>0.14954807162569836</v>
       </c>
       <c r="E79">
-        <f>E71/SUM(E$68:E$72)</f>
+        <f t="shared" si="9"/>
         <v>0.14948470669170827</v>
       </c>
       <c r="F79">
-        <f>F71/SUM(F$68:F$72)</f>
+        <f t="shared" si="9"/>
         <v>0.15001526692617256</v>
       </c>
       <c r="G79">
-        <f>G71/SUM(G$68:G$72)</f>
+        <f t="shared" si="9"/>
         <v>0.15053049418085823</v>
       </c>
       <c r="H79">
-        <f>H71/SUM(H$68:H$72)</f>
+        <f t="shared" ref="H79:W79" si="11">H71/SUM(H$68:H$72)</f>
         <v>0.15117521508386556</v>
       </c>
       <c r="I79">
-        <f>I71/SUM(I$68:I$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15214648646442744</v>
       </c>
       <c r="J79">
-        <f>J71/SUM(J$68:J$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15342969614245261</v>
       </c>
       <c r="K79">
-        <f>K71/SUM(K$68:K$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15436739795865551</v>
       </c>
       <c r="L79">
-        <f>L71/SUM(L$68:L$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15559910245174233</v>
       </c>
       <c r="M79">
-        <f>M71/SUM(M$68:M$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15671133229922718</v>
       </c>
       <c r="N79">
-        <f>N71/SUM(N$68:N$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15780385420616633</v>
       </c>
       <c r="O79">
-        <f>O71/SUM(O$68:O$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15860739859317485</v>
       </c>
       <c r="P79">
-        <f>P71/SUM(P$68:P$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15940638545224142</v>
       </c>
       <c r="Q79">
-        <f>Q71/SUM(Q$68:Q$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15961568782992663</v>
       </c>
       <c r="R79">
-        <f>R71/SUM(R$68:R$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15932340800774406</v>
       </c>
       <c r="S79">
-        <f>S71/SUM(S$68:S$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15952349500602167</v>
       </c>
       <c r="T79">
-        <f>T71/SUM(T$68:T$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15972546557859923</v>
       </c>
       <c r="U79">
-        <f>U71/SUM(U$68:U$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15915941859375876</v>
       </c>
       <c r="V79">
-        <f>V71/SUM(V$68:V$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15767899363434934</v>
       </c>
       <c r="W79">
-        <f>W71/SUM(W$68:W$72)</f>
+        <f t="shared" si="11"/>
         <v>0.15732395084517886</v>
       </c>
     </row>
@@ -16840,100 +18682,100 @@
         <v>73</v>
       </c>
       <c r="B80">
-        <f>B72/SUM(B$68:B$72)</f>
+        <f t="shared" si="9"/>
         <v>0.44079527760068726</v>
       </c>
       <c r="C80">
-        <f>C72/SUM(C$68:C$72)</f>
+        <f t="shared" si="9"/>
         <v>0.44110184436865929</v>
       </c>
       <c r="D80">
-        <f>D72/SUM(D$68:D$72)</f>
+        <f t="shared" si="9"/>
         <v>0.4418373802796165</v>
       </c>
       <c r="E80">
-        <f>E72/SUM(E$68:E$72)</f>
+        <f t="shared" si="9"/>
         <v>0.44230442357503269</v>
       </c>
       <c r="F80">
-        <f>F72/SUM(F$68:F$72)</f>
+        <f t="shared" si="9"/>
         <v>0.44171800101802677</v>
       </c>
       <c r="G80">
-        <f>G72/SUM(G$68:G$72)</f>
+        <f t="shared" si="9"/>
         <v>0.44176505048963782</v>
       </c>
       <c r="H80">
-        <f>H72/SUM(H$68:H$72)</f>
+        <f t="shared" ref="H80:W80" si="12">H72/SUM(H$68:H$72)</f>
         <v>0.44184726181664596</v>
       </c>
       <c r="I80">
-        <f>I72/SUM(I$68:I$72)</f>
+        <f t="shared" si="12"/>
         <v>0.44126215045649397</v>
       </c>
       <c r="J80">
-        <f>J72/SUM(J$68:J$72)</f>
+        <f t="shared" si="12"/>
         <v>0.4400696990776618</v>
       </c>
       <c r="K80">
-        <f>K72/SUM(K$68:K$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43901779200427388</v>
       </c>
       <c r="L80">
-        <f>L72/SUM(L$68:L$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43778584179672286</v>
       </c>
       <c r="M80">
-        <f>M72/SUM(M$68:M$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43681761102177918</v>
       </c>
       <c r="N80">
-        <f>N72/SUM(N$68:N$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43586484519472191</v>
       </c>
       <c r="O80">
-        <f>O72/SUM(O$68:O$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43530161052397875</v>
       </c>
       <c r="P80">
-        <f>P72/SUM(P$68:P$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43441537110428857</v>
       </c>
       <c r="Q80">
-        <f>Q72/SUM(Q$68:Q$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43374588728293462</v>
       </c>
       <c r="R80">
-        <f>R72/SUM(R$68:R$72)</f>
+        <f t="shared" si="12"/>
         <v>0.4337733270981311</v>
       </c>
       <c r="S80">
-        <f>S72/SUM(S$68:S$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43337249047802007</v>
       </c>
       <c r="T80">
-        <f>T72/SUM(T$68:T$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43329133266538583</v>
       </c>
       <c r="U80">
-        <f>U72/SUM(U$68:U$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43400694285564317</v>
       </c>
       <c r="V80">
-        <f>V72/SUM(V$68:V$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43621565936235646</v>
       </c>
       <c r="W80">
-        <f>W72/SUM(W$68:W$72)</f>
+        <f t="shared" si="12"/>
         <v>0.43569779517005658</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>2014</v>
       </c>
@@ -16961,49 +18803,52 @@
       <c r="J83" s="1">
         <v>2022</v>
       </c>
+      <c r="K83" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B84">
-        <f>SUM(P42:P64)</f>
+        <f t="shared" ref="B84:J84" si="13">SUM(P42:P64)</f>
         <v>4004919</v>
       </c>
       <c r="C84">
-        <f>SUM(Q42:Q64)</f>
+        <f t="shared" si="13"/>
         <v>4044822</v>
       </c>
       <c r="D84">
-        <f>SUM(R42:R64)</f>
+        <f t="shared" si="13"/>
         <v>4084610</v>
       </c>
       <c r="E84">
-        <f>SUM(S42:S64)</f>
+        <f t="shared" si="13"/>
         <v>4111296</v>
       </c>
       <c r="F84">
-        <f>SUM(T42:T64)</f>
+        <f t="shared" si="13"/>
         <v>4132667</v>
       </c>
       <c r="G84">
-        <f>SUM(U42:U64)</f>
+        <f t="shared" si="13"/>
         <v>4155306</v>
       </c>
       <c r="H84">
-        <f>SUM(V42:V64)</f>
+        <f t="shared" si="13"/>
         <v>4160443</v>
       </c>
       <c r="I84">
-        <f>SUM(W42:W64)</f>
+        <f t="shared" si="13"/>
         <v>4173602</v>
       </c>
       <c r="J84">
-        <f>SUM(X42:X64)</f>
+        <f t="shared" si="13"/>
         <v>4207112</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>160</v>
       </c>
@@ -17013,35 +18858,39 @@
         <v>9.9634973890857723E-3</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" ref="D85:J85" si="3">(D84-C84)/C84</f>
+        <f t="shared" ref="D85:J85" si="14">(D84-C84)/C84</f>
         <v>9.8367740286222725E-3</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>6.5333042811920846E-3</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5.1981175765500711E-3</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>5.4780605357266868E-3</v>
       </c>
       <c r="H85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1.2362507117406035E-3</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>3.1628843370766044E-3</v>
       </c>
       <c r="J85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>8.0290358304409472E-3</v>
       </c>
+      <c r="K85" s="9">
+        <f>J85-I85</f>
+        <v>4.8661514933643433E-3</v>
+      </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>159</v>
       </c>
@@ -17061,86 +18910,90 @@
       </c>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B87">
-        <f>SUM(P12:P41)</f>
+        <f t="shared" ref="B87:J87" si="15">SUM(P12:P41)</f>
         <v>10750223</v>
       </c>
       <c r="C87">
-        <f>SUM(Q12:Q41)</f>
+        <f t="shared" si="15"/>
         <v>10824823</v>
       </c>
       <c r="D87">
-        <f>SUM(R12:R41)</f>
+        <f t="shared" si="15"/>
         <v>10916409</v>
       </c>
       <c r="E87">
-        <f>SUM(S12:S41)</f>
+        <f t="shared" si="15"/>
         <v>10979622</v>
       </c>
       <c r="F87">
-        <f>SUM(T12:T41)</f>
+        <f t="shared" si="15"/>
         <v>11035080</v>
       </c>
       <c r="G87">
-        <f>SUM(U12:U41)</f>
+        <f t="shared" si="15"/>
         <v>11077349</v>
       </c>
       <c r="H87">
-        <f>SUM(V12:V41)</f>
+        <f t="shared" si="15"/>
         <v>11092705</v>
       </c>
       <c r="I87">
-        <f>SUM(W12:W41)</f>
+        <f t="shared" si="15"/>
         <v>11113568</v>
       </c>
       <c r="J87">
-        <f>SUM(X12:X41)</f>
+        <f t="shared" si="15"/>
         <v>11229561</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8">
-        <f>(C87-B87)/B87</f>
+        <f t="shared" ref="C88:J88" si="16">(C87-B87)/B87</f>
         <v>6.9393909317043935E-3</v>
       </c>
       <c r="D88" s="8">
-        <f t="shared" ref="D88" si="4">(D87-C87)/C87</f>
+        <f t="shared" si="16"/>
         <v>8.460738803766122E-3</v>
       </c>
       <c r="E88" s="8">
-        <f t="shared" ref="E88" si="5">(E87-D87)/D87</f>
+        <f t="shared" si="16"/>
         <v>5.7906404935908866E-3</v>
       </c>
       <c r="F88" s="8">
-        <f t="shared" ref="F88" si="6">(F87-E87)/E87</f>
+        <f t="shared" si="16"/>
         <v>5.050993558794647E-3</v>
       </c>
       <c r="G88" s="8">
-        <f t="shared" ref="G88" si="7">(G87-F87)/F87</f>
+        <f t="shared" si="16"/>
         <v>3.8304208034740119E-3</v>
       </c>
       <c r="H88" s="8">
-        <f t="shared" ref="H88" si="8">(H87-G87)/G87</f>
+        <f t="shared" si="16"/>
         <v>1.386252252231107E-3</v>
       </c>
       <c r="I88" s="8">
-        <f t="shared" ref="I88" si="9">(I87-H87)/H87</f>
+        <f t="shared" si="16"/>
         <v>1.8807856154112095E-3</v>
       </c>
       <c r="J88" s="8">
-        <f t="shared" ref="J88" si="10">(J87-I87)/I87</f>
+        <f t="shared" si="16"/>
         <v>1.0437062156815885E-2</v>
       </c>
+      <c r="K88" s="9">
+        <f>J88-I88</f>
+        <v>8.5562765414046761E-3</v>
+      </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>159</v>
       </c>
@@ -17160,86 +19013,90 @@
       </c>
       <c r="J89" s="8"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B90">
-        <f>SUM(P2:P10)</f>
+        <f t="shared" ref="B90:J90" si="17">SUM(P2:P10)</f>
         <v>10268541</v>
       </c>
       <c r="C90">
-        <f>SUM(Q2:Q10)</f>
+        <f t="shared" si="17"/>
         <v>10346837</v>
       </c>
       <c r="D90">
-        <f>SUM(R2:R10)</f>
+        <f t="shared" si="17"/>
         <v>10451349</v>
       </c>
       <c r="E90">
-        <f>SUM(S2:S10)</f>
+        <f t="shared" si="17"/>
         <v>10521077</v>
       </c>
       <c r="F90">
-        <f>SUM(T2:T10)</f>
+        <f t="shared" si="17"/>
         <v>10587237</v>
       </c>
       <c r="G90">
-        <f>SUM(U2:U10)</f>
+        <f t="shared" si="17"/>
         <v>10649773</v>
       </c>
       <c r="H90">
-        <f>SUM(V2:V10)</f>
+        <f t="shared" si="17"/>
         <v>10666145</v>
       </c>
       <c r="I90">
-        <f>SUM(W2:W10)</f>
+        <f t="shared" si="17"/>
         <v>10680118</v>
       </c>
       <c r="J90">
-        <f>SUM(X2:X10)</f>
+        <f t="shared" si="17"/>
         <v>10817018</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8">
-        <f>(C90-B90)/B90</f>
+        <f t="shared" ref="C91:J91" si="18">(C90-B90)/B90</f>
         <v>7.6248417374970793E-3</v>
       </c>
       <c r="D91" s="8">
-        <f t="shared" ref="D91" si="11">(D90-C90)/C90</f>
+        <f t="shared" si="18"/>
         <v>1.0100864641049241E-2</v>
       </c>
       <c r="E91" s="8">
-        <f t="shared" ref="E91" si="12">(E90-D90)/D90</f>
+        <f t="shared" si="18"/>
         <v>6.6716746326239799E-3</v>
       </c>
       <c r="F91" s="8">
-        <f t="shared" ref="F91" si="13">(F90-E90)/E90</f>
+        <f t="shared" si="18"/>
         <v>6.2883296073206196E-3</v>
       </c>
       <c r="G91" s="8">
-        <f t="shared" ref="G91" si="14">(G90-F90)/F90</f>
+        <f t="shared" si="18"/>
         <v>5.9067346844129398E-3</v>
       </c>
       <c r="H91" s="8">
-        <f t="shared" ref="H91" si="15">(H90-G90)/G90</f>
+        <f t="shared" si="18"/>
         <v>1.5373097623770948E-3</v>
       </c>
       <c r="I91" s="8">
-        <f t="shared" ref="I91" si="16">(I90-H90)/H90</f>
+        <f t="shared" si="18"/>
         <v>1.310032818792544E-3</v>
       </c>
       <c r="J91" s="8">
-        <f t="shared" ref="J91" si="17">(J90-I90)/I90</f>
+        <f t="shared" si="18"/>
         <v>1.2818210435502679E-2</v>
       </c>
+      <c r="K91" s="9">
+        <f>J91-I91</f>
+        <v>1.1508177616710136E-2</v>
+      </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>159</v>
       </c>
@@ -17259,86 +19116,90 @@
       </c>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B93">
-        <f>P11</f>
+        <f t="shared" ref="B93:J93" si="19">P11</f>
         <v>9773527</v>
       </c>
       <c r="C93">
-        <f>Q11</f>
+        <f t="shared" si="19"/>
         <v>9896316</v>
       </c>
       <c r="D93">
-        <f>R11</f>
+        <f t="shared" si="19"/>
         <v>9990687</v>
       </c>
       <c r="E93">
-        <f>S11</f>
+        <f t="shared" si="19"/>
         <v>10028404</v>
       </c>
       <c r="F93">
-        <f>T11</f>
+        <f t="shared" si="19"/>
         <v>10092077</v>
       </c>
       <c r="G93">
-        <f>U11</f>
+        <f t="shared" si="19"/>
         <v>10157871</v>
       </c>
       <c r="H93">
-        <f>V11</f>
+        <f t="shared" si="19"/>
         <v>10140016</v>
       </c>
       <c r="I93">
-        <f>W11</f>
+        <f t="shared" si="19"/>
         <v>10082349</v>
       </c>
       <c r="J93">
-        <f>X11</f>
+        <f t="shared" si="19"/>
         <v>10148784</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8">
-        <f>(C93-B93)/B93</f>
+        <f t="shared" ref="C94:J94" si="20">(C93-B93)/B93</f>
         <v>1.2563427716524444E-2</v>
       </c>
       <c r="D94" s="8">
-        <f t="shared" ref="D94" si="18">(D93-C93)/C93</f>
+        <f t="shared" si="20"/>
         <v>9.5359727801739552E-3</v>
       </c>
       <c r="E94" s="8">
-        <f t="shared" ref="E94" si="19">(E93-D93)/D93</f>
+        <f t="shared" si="20"/>
         <v>3.7752158585290479E-3</v>
       </c>
       <c r="F94" s="8">
-        <f t="shared" ref="F94" si="20">(F93-E93)/E93</f>
+        <f t="shared" si="20"/>
         <v>6.3492655461427358E-3</v>
       </c>
       <c r="G94" s="8">
-        <f t="shared" ref="G94" si="21">(G93-F93)/F93</f>
+        <f t="shared" si="20"/>
         <v>6.5193715822818238E-3</v>
       </c>
       <c r="H94" s="8">
-        <f t="shared" ref="H94" si="22">(H93-G93)/G93</f>
+        <f t="shared" si="20"/>
         <v>-1.7577502214784968E-3</v>
       </c>
       <c r="I94" s="8">
-        <f t="shared" ref="I94" si="23">(I93-H93)/H93</f>
+        <f t="shared" si="20"/>
         <v>-5.6870718941666367E-3</v>
       </c>
       <c r="J94" s="8">
-        <f t="shared" ref="J94" si="24">(J93-I93)/I93</f>
+        <f t="shared" si="20"/>
         <v>6.5892382816742411E-3</v>
       </c>
+      <c r="K94" s="9">
+        <f>J94-I94</f>
+        <v>1.2276310175840879E-2</v>
+      </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>159</v>
       </c>
@@ -17357,33 +19218,33 @@
         <v>-3.7174128318817989E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C96">
-        <f t="shared" ref="C96:I96" si="25">C93-B93</f>
+        <f t="shared" ref="C96:I96" si="21">C93-B93</f>
         <v>122789</v>
       </c>
       <c r="D96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>94371</v>
       </c>
       <c r="E96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>37717</v>
       </c>
       <c r="F96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>63673</v>
       </c>
       <c r="G96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>65794</v>
       </c>
       <c r="H96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>-17855</v>
       </c>
       <c r="I96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>-57667</v>
       </c>
       <c r="J96">
@@ -17406,7 +19267,19 @@
         <v>177</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -17421,6 +19294,25 @@
         <f>$I$86</f>
         <v>2.2015225834150359E-3</v>
       </c>
+      <c r="E99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="9">
+        <f>G86</f>
+        <v>5.4629845268840014E-3</v>
+      </c>
+      <c r="G99" s="9">
+        <f>H85</f>
+        <v>1.2362507117406035E-3</v>
+      </c>
+      <c r="H99" s="9">
+        <f>I85</f>
+        <v>3.1628843370766044E-3</v>
+      </c>
+      <c r="I99" s="9">
+        <f>J85</f>
+        <v>8.0290358304409472E-3</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -17434,6 +19326,25 @@
         <f>$I$89</f>
         <v>1.6348225554688219E-3</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F100" s="9">
+        <f>G89</f>
+        <v>4.665683679077247E-3</v>
+      </c>
+      <c r="G100" s="8">
+        <f>H88</f>
+        <v>1.386252252231107E-3</v>
+      </c>
+      <c r="H100" s="8">
+        <f>I88</f>
+        <v>1.8807856154112095E-3</v>
+      </c>
+      <c r="I100" s="8">
+        <f>J88</f>
+        <v>1.0437062156815885E-2</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
@@ -17447,6 +19358,25 @@
         <f>$I$92</f>
         <v>1.4246782537055015E-3</v>
       </c>
+      <c r="E101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" s="9">
+        <f>G92</f>
+        <v>5.8556252504992582E-3</v>
+      </c>
+      <c r="G101" s="8">
+        <f>H91</f>
+        <v>1.5373097623770948E-3</v>
+      </c>
+      <c r="H101" s="8">
+        <f>I91</f>
+        <v>1.310032818792544E-3</v>
+      </c>
+      <c r="I101" s="8">
+        <f>J91</f>
+        <v>1.2818210435502679E-2</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
@@ -17460,10 +19390,29 @@
         <f>$I$95</f>
         <v>-3.7174128318817989E-3</v>
       </c>
+      <c r="E102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="9">
+        <f>G95</f>
+        <v>5.2859063918330815E-3</v>
+      </c>
+      <c r="G102" s="8">
+        <f>H94</f>
+        <v>-1.7577502214784968E-3</v>
+      </c>
+      <c r="H102" s="8">
+        <f>I94</f>
+        <v>-5.6870718941666367E-3</v>
+      </c>
+      <c r="I102" s="8">
+        <f>J94</f>
+        <v>6.5892382816742411E-3</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -17823,31 +19772,31 @@
         <v>2</v>
       </c>
       <c r="C118">
-        <f>C107-B107</f>
+        <f t="shared" ref="C118:C127" si="22">C107-B107</f>
         <v>20196</v>
       </c>
       <c r="D118">
-        <f t="shared" ref="D118:I127" si="26">D107-C107</f>
+        <f t="shared" ref="D118:I127" si="23">D107-C107</f>
         <v>28236</v>
       </c>
       <c r="E118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>20679</v>
       </c>
       <c r="F118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>14847</v>
       </c>
       <c r="G118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>13064</v>
       </c>
       <c r="H118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>-602</v>
       </c>
       <c r="I118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>-2674</v>
       </c>
       <c r="J118">
@@ -17860,35 +19809,35 @@
         <v>3</v>
       </c>
       <c r="C119">
-        <f>C108-B108</f>
+        <f t="shared" si="22"/>
         <v>10305</v>
       </c>
       <c r="D119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>11417</v>
       </c>
       <c r="E119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>6096</v>
       </c>
       <c r="F119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>7253</v>
       </c>
       <c r="G119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>5738</v>
       </c>
       <c r="H119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>4550</v>
       </c>
       <c r="I119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>3138</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J127" si="27">J108-I108</f>
+        <f t="shared" ref="J119:J127" si="24">J108-I108</f>
         <v>11618</v>
       </c>
     </row>
@@ -17897,35 +19846,35 @@
         <v>4</v>
       </c>
       <c r="C120">
-        <f>C109-B109</f>
+        <f t="shared" si="22"/>
         <v>7810</v>
       </c>
       <c r="D120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>11550</v>
       </c>
       <c r="E120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>8390</v>
       </c>
       <c r="F120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>6960</v>
       </c>
       <c r="G120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>8690</v>
       </c>
       <c r="H120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>3450</v>
       </c>
       <c r="I120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>710</v>
       </c>
       <c r="J120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -17934,35 +19883,35 @@
         <v>5</v>
       </c>
       <c r="C121">
-        <f>C110-B110</f>
+        <f t="shared" si="22"/>
         <v>7553</v>
       </c>
       <c r="D121">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>8752</v>
       </c>
       <c r="E121">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>6395</v>
       </c>
       <c r="F121">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>4562</v>
       </c>
       <c r="G121">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>6944</v>
       </c>
       <c r="H121">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>3803</v>
       </c>
       <c r="I121">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>1036</v>
       </c>
       <c r="J121">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>13004</v>
       </c>
     </row>
@@ -17971,35 +19920,35 @@
         <v>6</v>
       </c>
       <c r="C122">
-        <f>C111-B111</f>
+        <f t="shared" si="22"/>
         <v>4946</v>
       </c>
       <c r="D122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>6161</v>
       </c>
       <c r="E122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>4954</v>
       </c>
       <c r="F122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>5272</v>
       </c>
       <c r="G122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2840</v>
       </c>
       <c r="H122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>276</v>
       </c>
       <c r="I122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>3244</v>
       </c>
       <c r="J122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>13873</v>
       </c>
     </row>
@@ -18008,35 +19957,35 @@
         <v>7</v>
       </c>
       <c r="C123">
-        <f>C112-B112</f>
+        <f t="shared" si="22"/>
         <v>22278</v>
       </c>
       <c r="D123">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>26974</v>
       </c>
       <c r="E123">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>18726</v>
       </c>
       <c r="F123">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>18176</v>
       </c>
       <c r="G123">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>21599</v>
       </c>
       <c r="H123">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>6687</v>
       </c>
       <c r="I123">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>11475</v>
       </c>
       <c r="J123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>37899</v>
       </c>
     </row>
@@ -18045,35 +19994,35 @@
         <v>8</v>
       </c>
       <c r="C124">
-        <f>C113-B113</f>
+        <f t="shared" si="22"/>
         <v>988</v>
       </c>
       <c r="D124">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>3673</v>
       </c>
       <c r="E124">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>1625</v>
       </c>
       <c r="F124">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>4005</v>
       </c>
       <c r="G124">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2472</v>
       </c>
       <c r="H124">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>518</v>
       </c>
       <c r="I124">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>69</v>
       </c>
       <c r="J124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>12670</v>
       </c>
     </row>
@@ -18082,35 +20031,35 @@
         <v>9</v>
       </c>
       <c r="C125">
-        <f>C114-B114</f>
+        <f t="shared" si="22"/>
         <v>3279</v>
       </c>
       <c r="D125">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>5014</v>
       </c>
       <c r="E125">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2893</v>
       </c>
       <c r="F125">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>3002</v>
       </c>
       <c r="G125">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>724</v>
       </c>
       <c r="H125">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>-549</v>
       </c>
       <c r="I125">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>-3604</v>
       </c>
       <c r="J125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>10332</v>
       </c>
     </row>
@@ -18119,35 +20068,35 @@
         <v>10</v>
       </c>
       <c r="C126">
-        <f>C115-B115</f>
+        <f t="shared" si="22"/>
         <v>941</v>
       </c>
       <c r="D126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2735</v>
       </c>
       <c r="E126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>-30</v>
       </c>
       <c r="F126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>2083</v>
       </c>
       <c r="G126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>465</v>
       </c>
       <c r="H126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>-1761</v>
       </c>
       <c r="I126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>579</v>
       </c>
       <c r="J126">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>13388</v>
       </c>
     </row>
@@ -18156,35 +20105,35 @@
         <v>11</v>
       </c>
       <c r="C127">
-        <f>C116-B116</f>
+        <f t="shared" si="22"/>
         <v>122789</v>
       </c>
       <c r="D127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>94371</v>
       </c>
       <c r="E127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>37717</v>
       </c>
       <c r="F127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>63673</v>
       </c>
       <c r="G127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>65794</v>
       </c>
       <c r="H127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>-17855</v>
       </c>
       <c r="I127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>-57667</v>
       </c>
       <c r="J127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>66435</v>
       </c>
     </row>
@@ -18193,31 +20142,31 @@
         <v>2</v>
       </c>
       <c r="C129" s="6">
-        <f>(C107-B107)/B107</f>
+        <f t="shared" ref="C129:C138" si="25">(C107-B107)/B107</f>
         <v>8.1423861271415297E-3</v>
       </c>
       <c r="D129" s="6">
-        <f t="shared" ref="D129:I129" si="28">(D107-C107)/C107</f>
+        <f t="shared" ref="D129:I129" si="26">(D107-C107)/C107</f>
         <v>1.1291915778528724E-2</v>
       </c>
       <c r="E129" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>8.1774416656846399E-3</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>5.8235747499965681E-3</v>
       </c>
       <c r="G129" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>5.0945438776560728E-3</v>
       </c>
       <c r="H129" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>-2.335708876004122E-4</v>
       </c>
       <c r="I129" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>-1.03773167534289E-3</v>
       </c>
       <c r="J129" s="6">
@@ -18230,35 +20179,35 @@
         <v>3</v>
       </c>
       <c r="C130" s="6">
-        <f>(C108-B108)/B108</f>
+        <f t="shared" si="25"/>
         <v>1.443936587293358E-2</v>
       </c>
       <c r="D130" s="6">
-        <f t="shared" ref="D130:J130" si="29">(D108-C108)/C108</f>
+        <f t="shared" ref="D130:J130" si="27">(D108-C108)/C108</f>
         <v>1.5769794427738928E-2</v>
       </c>
       <c r="E130" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>8.289411419153762E-3</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>9.7816294713901162E-3</v>
       </c>
       <c r="G130" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>7.6634902403354948E-3</v>
       </c>
       <c r="H130" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>6.0306196428547764E-3</v>
       </c>
       <c r="I130" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>4.134207603621977E-3</v>
       </c>
       <c r="J130" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1.5243298419908393E-2</v>
       </c>
     </row>
@@ -18267,35 +20216,35 @@
         <v>4</v>
       </c>
       <c r="C131" s="6">
-        <f>(C109-B109)/B109</f>
+        <f t="shared" si="25"/>
         <v>8.0268039753748754E-3</v>
       </c>
       <c r="D131" s="6">
-        <f t="shared" ref="D131:J131" si="30">(D109-C109)/C109</f>
+        <f t="shared" ref="D131:J131" si="28">(D109-C109)/C109</f>
         <v>1.1776101141924959E-2</v>
       </c>
       <c r="E131" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>8.4546782889101633E-3</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6.9548534084777269E-3</v>
       </c>
       <c r="G131" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>8.6235982931427996E-3</v>
       </c>
       <c r="H131" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>3.3943663357569437E-3</v>
       </c>
       <c r="I131" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6.9618763727643553E-4</v>
       </c>
       <c r="J131" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -18304,35 +20253,35 @@
         <v>5</v>
       </c>
       <c r="C132" s="6">
-        <f>(C110-B110)/B110</f>
+        <f t="shared" si="25"/>
         <v>9.8035652632152779E-3</v>
       </c>
       <c r="D132" s="6">
-        <f t="shared" ref="D132:J132" si="31">(D110-C110)/C110</f>
+        <f t="shared" ref="D132:J132" si="29">(D110-C110)/C110</f>
         <v>1.124954530088549E-2</v>
       </c>
       <c r="E132" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>8.1284898803796433E-3</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>5.7518653846638781E-3</v>
       </c>
       <c r="G132" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>8.705070603337613E-3</v>
       </c>
       <c r="H132" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>4.7263372439848876E-3</v>
       </c>
       <c r="I132" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1.28147562660571E-3</v>
       </c>
       <c r="J132" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1.6064653931726455E-2</v>
       </c>
     </row>
@@ -18341,35 +20290,35 @@
         <v>6</v>
       </c>
       <c r="C133" s="6">
-        <f>(C111-B111)/B111</f>
+        <f t="shared" si="25"/>
         <v>8.0776473239731056E-3</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" ref="D133:J133" si="32">(D111-C111)/C111</f>
+        <f t="shared" ref="D133:J133" si="30">(D111-C111)/C111</f>
         <v>9.981320463408036E-3</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>7.9465652038613176E-3</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>8.3899880324905148E-3</v>
       </c>
       <c r="G133" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4.4820402752351494E-3</v>
       </c>
       <c r="H133" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4.3363499245852185E-4</v>
       </c>
       <c r="I133" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>5.0945731174892733E-3</v>
       </c>
       <c r="J133" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2.16765625E-2</v>
       </c>
     </row>
@@ -18378,35 +20327,35 @@
         <v>7</v>
       </c>
       <c r="C134" s="6">
-        <f>(C112-B112)/B112</f>
+        <f t="shared" si="25"/>
         <v>9.2293543014806412E-3</v>
       </c>
       <c r="D134" s="6">
-        <f t="shared" ref="D134:J134" si="33">(D112-C112)/C112</f>
+        <f t="shared" ref="D134:J134" si="31">(D112-C112)/C112</f>
         <v>1.107262515711601E-2</v>
       </c>
       <c r="E134" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>7.602701017266243E-3</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>7.3237225592090891E-3</v>
       </c>
       <c r="G134" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>8.6396898527744681E-3</v>
       </c>
       <c r="H134" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>2.6519160857131638E-3</v>
       </c>
       <c r="I134" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>4.5386945962836104E-3</v>
       </c>
       <c r="J134" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.4922423008699727E-2</v>
       </c>
     </row>
@@ -18415,35 +20364,35 @@
         <v>8</v>
       </c>
       <c r="C135" s="6">
-        <f>(C113-B113)/B113</f>
+        <f t="shared" si="25"/>
         <v>1.1784055981422222E-3</v>
       </c>
       <c r="D135" s="6">
-        <f t="shared" ref="D135:J135" si="34">(D113-C113)/C113</f>
+        <f t="shared" ref="D135:J135" si="32">(D113-C113)/C113</f>
         <v>4.3756976634751355E-3</v>
       </c>
       <c r="E135" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.9274518967312788E-3</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4.7412889913307221E-3</v>
       </c>
       <c r="G135" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>2.9126488137318665E-3</v>
       </c>
       <c r="H135" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>6.0856407075320963E-4</v>
       </c>
       <c r="I135" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>8.1014251463540062E-5</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.4874890081958648E-2</v>
       </c>
     </row>
@@ -18452,35 +20401,35 @@
         <v>9</v>
       </c>
       <c r="C136" s="6">
-        <f>(C114-B114)/B114</f>
+        <f t="shared" si="25"/>
         <v>5.0419392783830124E-3</v>
       </c>
       <c r="D136" s="6">
-        <f t="shared" ref="D136:J136" si="35">(D114-C114)/C114</f>
+        <f t="shared" ref="D136:J136" si="33">(D114-C114)/C114</f>
         <v>7.6710769494388207E-3</v>
       </c>
       <c r="E136" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>4.3923976448367692E-3</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>4.5379581606908824E-3</v>
       </c>
       <c r="G136" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1.0894869028325155E-3</v>
       </c>
       <c r="H136" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-8.2524498051129113E-4</v>
       </c>
       <c r="I136" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-5.421929629250739E-3</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1.5628403397952517E-2</v>
       </c>
     </row>
@@ -18489,35 +20438,35 @@
         <v>10</v>
       </c>
       <c r="C137" s="6">
-        <f>(C115-B115)/B115</f>
+        <f t="shared" si="25"/>
         <v>1.1529093502050977E-3</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" ref="D137:J137" si="36">(D115-C115)/C115</f>
+        <f t="shared" ref="D137:J137" si="34">(D115-C115)/C115</f>
         <v>3.3470519631347007E-3</v>
       </c>
       <c r="E137" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-3.65910776316303E-5</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>2.5407334583980815E-3</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>5.6574504973081483E-4</v>
       </c>
       <c r="H137" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-2.1413198117681393E-3</v>
       </c>
       <c r="I137" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>7.0555634763090267E-4</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1.6302812442158383E-2</v>
       </c>
     </row>
@@ -18526,41 +20475,41 @@
         <v>11</v>
       </c>
       <c r="C138" s="6">
-        <f>(C116-B116)/B116</f>
+        <f t="shared" si="25"/>
         <v>1.2563427716524444E-2</v>
       </c>
       <c r="D138" s="6">
-        <f t="shared" ref="D138:J138" si="37">(D116-C116)/C116</f>
+        <f t="shared" ref="D138:J138" si="35">(D116-C116)/C116</f>
         <v>9.5359727801739552E-3</v>
       </c>
       <c r="E138" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>3.7752158585290479E-3</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>6.3492655461427358E-3</v>
       </c>
       <c r="G138" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>6.5193715822818238E-3</v>
       </c>
       <c r="H138" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-1.7577502214784968E-3</v>
       </c>
       <c r="I138" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-5.6870718941666367E-3</v>
       </c>
       <c r="J138" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>6.5892382816742411E-3</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -18596,7 +20545,7 @@
       </c>
       <c r="H142" s="6"/>
       <c r="I142" s="6">
-        <f t="shared" ref="I142:I149" si="38">SUM(H130:I130)</f>
+        <f t="shared" ref="I142:I149" si="36">SUM(H130:I130)</f>
         <v>1.0164827246476753E-2</v>
       </c>
       <c r="J142" s="6"/>
@@ -18612,7 +20561,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>4.0905539730333789E-3</v>
       </c>
       <c r="J143" s="6"/>
@@ -18628,7 +20577,7 @@
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>6.0078128705905974E-3</v>
       </c>
       <c r="J144" s="6"/>
@@ -18644,7 +20593,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>5.5282081099477954E-3</v>
       </c>
       <c r="J145" s="6"/>
@@ -18660,7 +20609,7 @@
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>7.1906106819967742E-3</v>
       </c>
       <c r="J146" s="6"/>
@@ -18676,7 +20625,7 @@
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>6.8957832221674975E-4</v>
       </c>
       <c r="J147" s="6"/>
@@ -18692,7 +20641,7 @@
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-6.2471746097620302E-3</v>
       </c>
       <c r="J148" s="6"/>
@@ -18708,7 +20657,7 @@
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-1.4357634641372365E-3</v>
       </c>
       <c r="J149" s="6"/>
@@ -18731,7 +20680,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -26336,21 +28285,9 @@
         <v>Urban growth</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -26797,12 +28734,12 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B37">
         <v>2009</v>
